--- a/pipeline/latest_data.xlsx
+++ b/pipeline/latest_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thomasmertens/Desktop/thesis/git_code/pipeline/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C597555C-3F9A-154B-A471-7EBED92F1693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{341B7ED1-40EA-2E44-9B5C-98C500564BA3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -2507,9 +2507,6 @@
     <t>Hard</t>
   </si>
   <si>
-    <t>dog-54</t>
-  </si>
-  <si>
     <t>[[29, 408, 240, 531]]</t>
   </si>
   <si>
@@ -2565,6 +2562,9 @@
   </si>
   <si>
     <t>[[38, 342, 81, 454]]</t>
+  </si>
+  <si>
+    <t>dog-51</t>
   </si>
 </sst>
 </file>
@@ -2963,8 +2963,8 @@
   <dimension ref="A1:X410"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A366" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A202" sqref="A202:H398"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -24751,34 +24751,34 @@
     </row>
     <row r="399" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>818</v>
+        <v>842</v>
       </c>
       <c r="B399" t="s">
-        <v>819</v>
+        <v>823</v>
       </c>
       <c r="C399" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="D399">
-        <v>4.4467453956604004</v>
+        <v>5.2954621315002441</v>
       </c>
       <c r="E399">
-        <v>2.794730663299561</v>
+        <v>3.5730957984924321</v>
       </c>
       <c r="F399">
-        <v>4.529240608215332</v>
+        <v>3.571844100952148</v>
       </c>
       <c r="G399">
         <v>15</v>
       </c>
       <c r="H399">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="I399">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="J399">
-        <v>0.99997912759403473</v>
+        <v>0.99994136157056523</v>
       </c>
       <c r="K399" t="s">
         <v>23</v>
@@ -24789,86 +24789,86 @@
     </row>
     <row r="400" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="B400" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C400" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="D400">
-        <v>4.4606714248657227</v>
+        <v>4.4467453956604004</v>
       </c>
       <c r="E400">
-        <v>2.5034265518188481</v>
+        <v>2.794730663299561</v>
       </c>
       <c r="F400">
-        <v>3.4276912212371831</v>
+        <v>4.529240608215332</v>
       </c>
       <c r="G400">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H400">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I400">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J400">
-        <v>0.99980551063928225</v>
+        <v>0.99997912759403473</v>
       </c>
       <c r="K400" t="s">
         <v>23</v>
       </c>
       <c r="L400" t="s">
-        <v>822</v>
+        <v>24</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="B401" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="C401" t="s">
         <v>60</v>
       </c>
       <c r="D401">
-        <v>5.2954621315002441</v>
+        <v>4.4606714248657227</v>
       </c>
       <c r="E401">
-        <v>3.5730957984924321</v>
+        <v>2.5034265518188481</v>
       </c>
       <c r="F401">
-        <v>3.571844100952148</v>
+        <v>3.4276912212371831</v>
       </c>
       <c r="G401">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H401">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I401">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="J401">
-        <v>0.99994136157056523</v>
+        <v>0.99980551063928225</v>
       </c>
       <c r="K401" t="s">
         <v>23</v>
       </c>
       <c r="L401" t="s">
-        <v>24</v>
+        <v>822</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
+        <v>824</v>
+      </c>
+      <c r="B402" t="s">
         <v>825</v>
-      </c>
-      <c r="B402" t="s">
-        <v>826</v>
       </c>
       <c r="C402" t="s">
         <v>22</v>
@@ -24903,10 +24903,10 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
+        <v>826</v>
+      </c>
+      <c r="B403" t="s">
         <v>827</v>
-      </c>
-      <c r="B403" t="s">
-        <v>828</v>
       </c>
       <c r="C403" t="s">
         <v>22</v>
@@ -24941,10 +24941,10 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
+        <v>828</v>
+      </c>
+      <c r="B404" t="s">
         <v>829</v>
-      </c>
-      <c r="B404" t="s">
-        <v>830</v>
       </c>
       <c r="C404" t="s">
         <v>22</v>
@@ -24979,10 +24979,10 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
+        <v>830</v>
+      </c>
+      <c r="B405" t="s">
         <v>831</v>
-      </c>
-      <c r="B405" t="s">
-        <v>832</v>
       </c>
       <c r="C405" t="s">
         <v>22</v>
@@ -25017,10 +25017,10 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
+        <v>832</v>
+      </c>
+      <c r="B406" t="s">
         <v>833</v>
-      </c>
-      <c r="B406" t="s">
-        <v>834</v>
       </c>
       <c r="C406" t="s">
         <v>22</v>
@@ -25055,10 +25055,10 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
+        <v>834</v>
+      </c>
+      <c r="B407" t="s">
         <v>835</v>
-      </c>
-      <c r="B407" t="s">
-        <v>836</v>
       </c>
       <c r="C407" t="s">
         <v>22</v>
@@ -25093,10 +25093,10 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
+        <v>836</v>
+      </c>
+      <c r="B408" t="s">
         <v>837</v>
-      </c>
-      <c r="B408" t="s">
-        <v>838</v>
       </c>
       <c r="C408" t="s">
         <v>22</v>
@@ -25131,10 +25131,10 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
+        <v>838</v>
+      </c>
+      <c r="B409" t="s">
         <v>839</v>
-      </c>
-      <c r="B409" t="s">
-        <v>840</v>
       </c>
       <c r="C409" t="s">
         <v>22</v>
@@ -25169,10 +25169,10 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
+        <v>840</v>
+      </c>
+      <c r="B410" t="s">
         <v>841</v>
-      </c>
-      <c r="B410" t="s">
-        <v>842</v>
       </c>
       <c r="C410" t="s">
         <v>22</v>
